--- a/Spreadsheets/dataSpreadSheet.xlsx
+++ b/Spreadsheets/dataSpreadSheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t/>
   </si>
@@ -32,9 +32,6 @@
     <t>DATEOFBIRTH</t>
   </si>
   <si>
-    <t>PROFILEIMAGE</t>
-  </si>
-  <si>
     <t>ADDRESS</t>
   </si>
   <si>
@@ -59,15 +56,6 @@
     <t>PHONENUMBER</t>
   </si>
   <si>
-    <t>_CREATEDBY</t>
-  </si>
-  <si>
-    <t>CONTACTID</t>
-  </si>
-  <si>
-    <t>ROLEID</t>
-  </si>
-  <si>
     <t>ROLENAME</t>
   </si>
   <si>
@@ -77,91 +65,94 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Dinil</t>
-  </si>
-  <si>
-    <t>Thomas</t>
+    <t>rgwer</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2024-10-31</t>
-  </si>
-  <si>
-    <t>Assets/UploadedImages/favi-icon1.png</t>
-  </si>
-  <si>
-    <t>Vallikunnil House</t>
-  </si>
-  <si>
-    <t>kulanada</t>
-  </si>
-  <si>
-    <t>Pathanamthitta</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>dinilvallikunnil@gmail.com</t>
-  </si>
-  <si>
-    <t>abhi12</t>
-  </si>
-  <si>
-    <t>Role1</t>
-  </si>
-  <si>
-    <t>Empty Columns</t>
+    <t>2001-05-10</t>
+  </si>
+  <si>
+    <t>dfj</t>
+  </si>
+  <si>
+    <t>yhgf</t>
+  </si>
+  <si>
+    <t>bjvv</t>
+  </si>
+  <si>
+    <t>ferf</t>
+  </si>
+  <si>
+    <t>ggsrgtertwef@techversantinfotech.com</t>
+  </si>
+  <si>
+    <t>Role,Role6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERRORS - FIRSTNAME IS EMPTY, ADDRESS IS EMPTY, ROLENAME IS INVALID , </t>
+  </si>
+  <si>
+    <t>frfer</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hjrtdf</t>
+  </si>
+  <si>
+    <t>oyufliwrfw@techversantinfotech.com</t>
+  </si>
+  <si>
+    <t>Role2,Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERRORS - ROLENAME IS INVALID , </t>
+  </si>
+  <si>
+    <t>hrjhr</t>
+  </si>
+  <si>
+    <t>Role2,Role3</t>
+  </si>
+  <si>
+    <t>Row Added</t>
   </si>
   <si>
     <t>Ms</t>
   </si>
   <si>
-    <t>rhju</t>
-  </si>
-  <si>
-    <t>ghrt</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2003-11-12</t>
-  </si>
-  <si>
-    <t>Assets/Images/profileImage.png</t>
-  </si>
-  <si>
-    <t>eyrt</t>
-  </si>
-  <si>
-    <t>hkjg</t>
-  </si>
-  <si>
-    <t>rtyu</t>
-  </si>
-  <si>
-    <t>jh</t>
-  </si>
-  <si>
-    <t>gere</t>
-  </si>
-  <si>
-    <t>hyt@gmail.com</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>Role1,Role3</t>
-  </si>
-  <si>
-    <t>Row added</t>
+    <t>Aswathy</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>02/04/2000</t>
+  </si>
+  <si>
+    <t>frer</t>
+  </si>
+  <si>
+    <t>greg</t>
+  </si>
+  <si>
+    <t>gerg</t>
+  </si>
+  <si>
+    <t>gerge</t>
+  </si>
+  <si>
+    <t>ghdfgwig@gmail.com</t>
+  </si>
+  <si>
+    <t>Role2</t>
   </si>
 </sst>
 </file>
@@ -206,31 +197,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="6" max="6" width="36.13671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.47265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="25.12890625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="15.0234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="36.8046875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="70.0078125" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="6.65625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.8359375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="12.6171875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.5859375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="7.59375" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.53515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.0234375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.5390625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="15.671875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.7265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -279,135 +266,193 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="n">
+        <v>684646.0</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="n">
+        <v>7.567623765E9</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="n">
-        <v>689503.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.544945673E9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>888888.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.232323233E9</v>
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>684646.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.676766556E9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>49</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>684646.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.567623765E9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="n">
+        <v>345434.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.433445566E9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
